--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manikandan Ravi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40748939-0AB3-46A4-97A2-697E379CD203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{73F75830-8BDD-4E3D-8CD7-838705298EEB}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GitHub" sheetId="1" r:id="rId1"/>
+    <sheet name="Shell Scrpit" sheetId="2" r:id="rId2"/>
+    <sheet name="Linux" sheetId="3" r:id="rId3"/>
+    <sheet name="Docker " sheetId="4" r:id="rId4"/>
+    <sheet name="AWS" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="184">
   <si>
     <t xml:space="preserve">Command </t>
   </si>
@@ -115,12 +113,497 @@
   </si>
   <si>
     <t>Git Pull origin main</t>
+  </si>
+  <si>
+    <t>shell is a program it can takes the commands whatever the user is typing  and it gives those commands to OS to execute.</t>
+  </si>
+  <si>
+    <t>csh</t>
+  </si>
+  <si>
+    <t>tsch</t>
+  </si>
+  <si>
+    <t>zsh</t>
+  </si>
+  <si>
+    <t>in older version of linux</t>
+  </si>
+  <si>
+    <t>in advance version of linux server</t>
+  </si>
+  <si>
+    <t>default shell AIX</t>
+  </si>
+  <si>
+    <t>Ex : cd DevOps/linux</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Start from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (root dir)</t>
+    </r>
+  </si>
+  <si>
+    <t>echo $SHELL , echo $0</t>
+  </si>
+  <si>
+    <t>Absolute path --&gt;</t>
+  </si>
+  <si>
+    <t>Relative path --&gt;</t>
+  </si>
+  <si>
+    <t>why we need to learn script</t>
+  </si>
+  <si>
+    <t>Automate  our daily jobs</t>
+  </si>
+  <si>
+    <t>Taking databse backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring several server resources like  cpu utilization  and memory utilization </t>
+  </si>
+  <si>
+    <t>Portable</t>
+  </si>
+  <si>
+    <t>How to know Current shell --&gt;</t>
+  </si>
+  <si>
+    <t>sh --&gt;</t>
+  </si>
+  <si>
+    <t>bash --&gt;</t>
+  </si>
+  <si>
+    <t>ksh --&gt;</t>
+  </si>
+  <si>
+    <t>What is shell --&gt;</t>
+  </si>
+  <si>
+    <t>#!/bin/bash --&gt;</t>
+  </si>
+  <si>
+    <t>Shebang line</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>List the file</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>Make directory</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>Create a file</t>
+  </si>
+  <si>
+    <t>nano</t>
+  </si>
+  <si>
+    <t>edit the file</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>open the created file</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>change directory</t>
+  </si>
+  <si>
+    <t>cd ..</t>
+  </si>
+  <si>
+    <t>one step back</t>
+  </si>
+  <si>
+    <t>cd ../..</t>
+  </si>
+  <si>
+    <t>two step back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rm </t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>rmdir</t>
+  </si>
+  <si>
+    <t>remove directory</t>
+  </si>
+  <si>
+    <t>rm *</t>
+  </si>
+  <si>
+    <t>remove all file in one dir</t>
+  </si>
+  <si>
+    <t>ls -l</t>
+  </si>
+  <si>
+    <t>It shows total files with details</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>Shows definition of all  commands</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>shows all directory</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Clearing the commands</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>copy the file</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Move the file</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Inside the file</t>
+  </si>
+  <si>
+    <t>Ex: mv 2.txt test1</t>
+  </si>
+  <si>
+    <t>first file name and dic name</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Home dir</t>
+  </si>
+  <si>
+    <t>How to install packages</t>
+  </si>
+  <si>
+    <t>super user do</t>
+  </si>
+  <si>
+    <t>sudo apt install git</t>
+  </si>
+  <si>
+    <t>How to remove packages</t>
+  </si>
+  <si>
+    <t>sudo apt purge git</t>
+  </si>
+  <si>
+    <t>sudo --&gt;</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>To connect any remote login server</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Present working dir</t>
+  </si>
+  <si>
+    <t>Root user command</t>
+  </si>
+  <si>
+    <t>Vim</t>
+  </si>
+  <si>
+    <t>vi - open the vim editor</t>
+  </si>
+  <si>
+    <t>i - to enter script</t>
+  </si>
+  <si>
+    <t>:wq - save and exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:q! - exit </t>
+  </si>
+  <si>
+    <t>How to run the script--&gt;</t>
+  </si>
+  <si>
+    <t>./firstscript.sh</t>
+  </si>
+  <si>
+    <t>. Firstscript.sh</t>
+  </si>
+  <si>
+    <t>sh firstscript.sh</t>
+  </si>
+  <si>
+    <t>bash firstscript.sh</t>
+  </si>
+  <si>
+    <t>Debug mode--&gt;</t>
+  </si>
+  <si>
+    <t>set +x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set -x  </t>
+  </si>
+  <si>
+    <t>we can use 255 naming characters</t>
+  </si>
+  <si>
+    <t>Basic Commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps </t>
+  </si>
+  <si>
+    <t>List containers</t>
+  </si>
+  <si>
+    <t>ps -a</t>
+  </si>
+  <si>
+    <t>docker rm</t>
+  </si>
+  <si>
+    <t>Remove a container</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t>List images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker rmi </t>
+  </si>
+  <si>
+    <t>Remove images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker run nginx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download an image --&gt;nginx= image name </t>
+  </si>
+  <si>
+    <t>docker pull nginx</t>
+  </si>
+  <si>
+    <t>pull's the image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show's all containers running &amp; stopped </t>
+  </si>
+  <si>
+    <t>docker exec</t>
+  </si>
+  <si>
+    <t>Execute a command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker run ubuntu sleep 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Append a command </t>
+  </si>
+  <si>
+    <t>docker run -d ubuntu sleep 50</t>
+  </si>
+  <si>
+    <t>docker run redis:4.0</t>
+  </si>
+  <si>
+    <t>Run-tag</t>
+  </si>
+  <si>
+    <t>docker run -p 80:8000</t>
+  </si>
+  <si>
+    <t>Port mapping</t>
+  </si>
+  <si>
+    <t>docker run -v mysql</t>
+  </si>
+  <si>
+    <t>Volume mapping</t>
+  </si>
+  <si>
+    <t>Inspect container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker run </t>
+  </si>
+  <si>
+    <t>docker logs "coin ID"</t>
+  </si>
+  <si>
+    <t>Container logs</t>
+  </si>
+  <si>
+    <t>Attach and Detach using -d</t>
+  </si>
+  <si>
+    <t>docker run -I redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUN - STDIN </t>
+  </si>
+  <si>
+    <t>docker run -it  redis</t>
+  </si>
+  <si>
+    <t>docker inspect "cointainer ID or name "</t>
+  </si>
+  <si>
+    <t>Docker Environmental Variables</t>
+  </si>
+  <si>
+    <t>docker run -e APP_COLOR=blue simple-webapp-color</t>
+  </si>
+  <si>
+    <t>docker run -e APP_COLOR=green simple-webapp-color</t>
+  </si>
+  <si>
+    <t>docker run -e APP_COLOR=pink simple-webapp-color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can set using -e for variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker Image </t>
+  </si>
+  <si>
+    <t>docker build Docker  -t mmumshad/my-custom-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To build image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 - Base Ubuntu Layer </t>
+  </si>
+  <si>
+    <t>Layer 2 - Changes in apt packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 - Changes in pip packages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 4 - Source code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 5 - Update entrypoint with "flask" command </t>
+  </si>
+  <si>
+    <t>Docker Networks</t>
+  </si>
+  <si>
+    <t>docker run  Ubuntu  --network=host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To set network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker storage </t>
+  </si>
+  <si>
+    <t>(read and write )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image layer </t>
+  </si>
+  <si>
+    <t>(Only read)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker Compose </t>
+  </si>
+  <si>
+    <t>docker-compose-yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker links </t>
+  </si>
+  <si>
+    <t>docker --link "app name" example = redis:redis</t>
+  </si>
+  <si>
+    <t>Docker Registry</t>
+  </si>
+  <si>
+    <t>docker login private-registry.io</t>
+  </si>
+  <si>
+    <t>docker run private-registry.io/apps/internal-app</t>
+  </si>
+  <si>
+    <t>Layers  of building image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +640,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,11 +670,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -197,6 +723,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +752,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>94496</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6038851" y="3609975"/>
+          <a:ext cx="618370" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143626" y="4000501"/>
+          <a:ext cx="419100" cy="273290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -257,7 +912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +964,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -503,18 +1158,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAC461-1B7B-46AD-AD70-37EFD684CA30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,4 +1307,794 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A20:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>